--- a/public/data/db-source/freq.xlsx
+++ b/public/data/db-source/freq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A14C9F-C11B-4F4E-8ED8-4234E330956E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F559D0EA-9954-7D4B-A8BF-057F396ECDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>value</t>
   </si>
@@ -40,9 +40,6 @@
     <t>value_3</t>
   </si>
   <si>
-    <t>ser_pub_loc___variable_13</t>
-  </si>
-  <si>
     <t>value_4</t>
   </si>
   <si>
@@ -74,6 +71,24 @@
   </si>
   <si>
     <t>value_14</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale</t>
+  </si>
+  <si>
+    <t>pop_region__type_region</t>
+  </si>
+  <si>
+    <t>urbaine</t>
+  </si>
+  <si>
+    <t>périurbaine</t>
+  </si>
+  <si>
+    <t>rurale</t>
+  </si>
+  <si>
+    <t>montagne</t>
   </si>
 </sst>
 </file>
@@ -154,8 +169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}" name="Tableau3" displayName="Tableau3" ref="A1:C16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C16" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}" name="Tableau3" displayName="Tableau3" ref="A1:C20" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C20" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F479AE5F-1828-5E4C-A23B-6285A48F29B3}" name="variable_id" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{84C4D4A2-8ACD-B045-91A5-EBA02C626C87}" name="value" dataDxfId="1"/>
@@ -452,17 +467,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -480,7 +495,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -491,7 +506,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -502,7 +517,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -513,7 +528,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -524,10 +539,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -535,10 +550,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
@@ -546,10 +561,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>20</v>
@@ -557,10 +572,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>20</v>
@@ -568,10 +583,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>20</v>
@@ -579,10 +594,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>20</v>
@@ -590,10 +605,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>20</v>
@@ -601,10 +616,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -612,10 +627,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -623,10 +638,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -634,13 +649,57 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9481</v>
       </c>
     </row>
   </sheetData>
